--- a/数据整理/stocks/A股/北交所/835185-贝特瑞.xlsx
+++ b/数据整理/stocks/A股/北交所/835185-贝特瑞.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1191,7 +1192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1202,17 +1203,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1222,13 +1243,1509 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>181.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2770</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9557</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8779</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2757</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7876</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6310</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5612</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5462</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5211</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005352</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4782</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014271</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4706</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4691</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014294</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方北交所精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4581</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014273</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4309</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014275</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4305</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014279</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3863</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014283</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏北交所创新中小企业精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>68.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3822</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014269</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3710</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014277</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>68.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2076</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005353</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014272</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014276</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014274</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014270</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014280</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009055</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014278</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>68.82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009056</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>圆信永丰大湾区主题混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>18</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>5.91</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/北交所/835185-贝特瑞.xlsx
+++ b/数据整理/stocks/A股/北交所/835185-贝特瑞.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,737 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002168</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实智能汽车股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>52.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.0599</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.91</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009683</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富创新增长一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18.11</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>71.21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5451</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009697</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏成长精选6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5342</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009681</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方创新精选一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.24</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4406</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>014269</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实北交所精选两年定期混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.43</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3880</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>014283</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏北交所创新中小企业精选两年定开混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>52.55</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.26</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3271</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>110012</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达科汇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>15.73</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>75.64</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3240</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>014273</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发北交所精选两年定开混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>52.69</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2994</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>014279</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇添富北交所创新精选两年定开混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>65.64</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2782</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>014294</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方北交所精选两年定开混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>33.00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2134</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009698</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华夏成长精选6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1406</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009682</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>南方创新精选一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.15</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1211</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>014274</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发北交所精选两年定开混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>52.69</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0605</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009684</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇添富创新增长一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>71.21</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0566</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>014270</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>嘉实北交所精选两年定期混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>87.43</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0497</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>014663</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>富国创新发展两年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>37.11</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0380</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>014280</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>汇添富北交所创新精选两年定开混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>65.64</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0309</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>014664</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富国创新发展两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>37.11</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.91</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2692,64 +2020,736 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.91</v>
+          <t>002168</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实智能汽车股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0599</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.91</v>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5451</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5342</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4406</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014269</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3880</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014283</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏北交所创新中小企业精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>52.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3271</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3240</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014273</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2994</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014279</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2782</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014294</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方北交所精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014274</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014270</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014280</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富北交所创新精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/北交所/835185-贝特瑞.xlsx
+++ b/数据整理/stocks/A股/北交所/835185-贝特瑞.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>20.91</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>18</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>5.91</v>
       </c>
     </row>
@@ -515,6 +532,974 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5042</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4315</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005352</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014294</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方北交所精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3250</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014203</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬产业趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3074</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014283</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏北交所创新中小企业精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2661</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014277</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014271</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2412</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1970</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014273</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014275</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>61.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014269</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005353</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014272</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014274</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014276</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>61.75</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014278</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014270</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014204</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏扬产业趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2014,7 +2999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/北交所/835185-贝特瑞.xlsx
+++ b/数据整理/stocks/A股/北交所/835185-贝特瑞.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>4.14</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>20.91</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>18</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>5.91</v>
       </c>
     </row>
@@ -532,6 +549,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4836</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4764</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014294</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方北交所精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3183</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005352</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3090</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014203</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬产业趋势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2827</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2757</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014283</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏北交所创新中小企业精选两年定开混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2596</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014273</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014269</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005353</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014272</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>68.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>016307</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城北交所精选两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>43.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014274</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014270</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实北交所精选两年定期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014204</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬产业趋势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016308</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城北交所精选两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>43.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1499,7 +2180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2999,7 +3680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
